--- a/w7pay/assets/FechamentoFinanceiro.xlsx
+++ b/w7pay/assets/FechamentoFinanceiro.xlsx
@@ -58,280 +58,775 @@
     <x:t>Saldo</x:t>
   </x:si>
   <x:si>
-    <x:t>7898115757659</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BARRA ULTRABAR SABOR BANANA - TIA S&amp;#212;NIA - 30g</x:t>
+    <x:t>7894900700015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Coca Cola Zero 350 ml</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>R$ 5,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 302,12</x:t>
+    <x:t>R$ 5,99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 11.063,41</x:t>
   </x:si>
   <x:si>
     <x:t>R$ 0,00</x:t>
   </x:si>
   <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115757673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BARRA ULTRABAR SABOR CHOCOLATE COM NIBS - TIA S&amp;#212;NIA - 30g</x:t>
+    <x:t>1782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900010015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Coca Cola Original 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 7.410,54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900530001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua Mineral Crystal Sem G&amp;#225;s 500 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 3,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 7.366,96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0070847022015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico MONSTER Lata 473ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 12,99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 5.379,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0070847022206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico MONSTER ULTRA Lata 473ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 5.154,02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900531008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua Mineral Crystal Com G&amp;#225;s 500 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 4.301,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900530025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;GUA MINERAL CRYSTAL SEM G&amp;#193;S SQUEEZE 1L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 6,99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 646,95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896045506040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Heineken Long Neck 0,0 330 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 11,99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 191,84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900531015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua Mineral Crystal Com G&amp;#225;s 1,5 L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 6,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 90,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900660302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suco Del Valle lata sabor Maracuj&amp;#225; 290ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 77,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0070847022022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico Monster Khaos 473 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 64,95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900660333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suco Del Valle lata sabor Uva 290ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 59,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900500035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA POWERADE - LIM&amp;#195;O - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 34,95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7891098040848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ice Tea Le&amp;#227;o sabor Lim&amp;#227;o 450 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 29,95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220000250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico Monster Ultra Paradise sem A&amp;#231;&amp;#250;car - 473 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 25,98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7891098040749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ch&amp;#225; Matte Le&amp;#227;o Lim&amp;#227;o 450ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 23,96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0070847035305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico Monster Lata 269ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 9,99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 19,98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220000250222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico MONSTER ULTRA WATERMELON Lata 473ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900113563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA I9 POWERADE - LIM&amp;#195;O - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900530032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua Mineral Crystal Sem G&amp;#225;s 1,5 L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900521009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua Saborizada Crystal sabor Tangerina e Capim Lim&amp;#227;o 510ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900660265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suco Del Valle Lata sabor Goiaba 290ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8412598004179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Estrella Galicia Long Neck 200 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896045506057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pack Cerveja Heineken 0,0% - Long Neck - 330ml - Pack 06 Unidades</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7892840812850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFRIGERANTE H2O LIMONETO - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900320015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua T&amp;#244;nica Schweppes Citrus Sem A&amp;#231;ucar 350ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>070847022305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico Monster Absolute Zero - Lata 473ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900503029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA I9 POWERADE - LARANJA - 500ML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900123562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA I9 POWERADE - TANGERINA - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>789900060010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Sprite Sem A&amp;#231;ucares 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900660401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUCO DEL VALLE LATA SABOR MANGA 290ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7891098041074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ice Tea Le&amp;#227;o Lim&amp;#227;o Zero 450 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900111002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA I9 POWERADE - MARACUJ&amp;#193; - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898953990065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Estrella Galicia Lata - 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900011159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Coca Cola Original 310 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898367984018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA EISENBAHN PILSEN LATA 350 - PACK 12 UNIDADES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900093001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFRIGERANTE FANTA GUARAN&amp;#193; - 350ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900700398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Coca Cola Zero 220 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900681178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Sprite 220ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896045523412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Heineken Lata 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DV MARACUJA LT 290ML 6U FL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0070847033301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico Monster Mango Loco Lata 473ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900680508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFRIGERANTE LEMON FRESH ZERO A&amp;#199;&amp;#218;CAR SPRITE - 510ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0070847033929</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Energ&amp;#233;tico Monster Ultra Violet sem a&amp;#231;&amp;#250;car 473 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896371000007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA THEREZ&amp;#211;POLIS GOLD LAGER - LATA 350ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900504002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA I9 POWERADE - MIX DE FRUTAS - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900610017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suco Del Valle 100% Laranja 1L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898367984117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA EISENBAHN AMERICAN IPA - PACK 06 Lts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900660319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suco Del Valle lata sabor P&amp;#234;ssego 290ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900521504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua Saborizada Crystal Sabor Frutas Vermelhas - 510 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900300017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua T&amp;#244;nica Schweppes 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900010398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Coca Cola 220 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900110005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA I9 POWERADE - UVA VERDE - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898367984070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA EISENBAHN PALE ALE - LATA 350ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896045501038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Reineken Lata 250 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Powerade Limao PET 500ml 06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896045505371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Heineken Long Neck 330ml - PACK 06 UNIDADES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>070847034803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENERG&amp;#201;TICO MONSTER DRAGON ICE - LEMON - 473ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8412598000478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Estrella Galicia 0,0 Lata 330 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896045506705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA PURO MALTE TIGER - 350ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900030013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFRIGERANTE FANTA LARANJA - 350ML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896045504831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Amstel Lata 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898367983790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA EISENBAHN PILSER - LATA 350ml</x:t>
   </x:si>
   <x:si>
     <x:t>42</x:t>
   </x:si>
   <x:si>
-    <x:t>R$ 244,02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115757628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BARRA ULTRABAR SABOR AMENDOIM - TIA S&amp;#212;NIA - 30g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 180,11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115750049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRANOLA TRADICIONAL - TIA S&amp;#212;NIA - 30g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 2,55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 153,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>838</x:t>
-  </x:si>
-  <x:si>
-    <x:t>847</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115751015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRANOLA SABOR CHOCOLATE - TIA S&amp;#212;NIA - 30g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 102,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115751008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRANOLA COM CASTANHA-DO-PAR&amp;#193; - TIA S&amp;#212;NIA - 30g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 96,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115753163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ULTRABAR SABOR AM&amp;#202;NDOAS - TIA S&amp;#212;NIA - 18g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 4,14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 45,54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115754412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COOKIES MACAD&amp;#194;MIA - TIA S&amp;#212;NIAS - 150g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 15,66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 31,32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>684</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115754405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COOKIES CASTANHA-DO-PAR&amp;#193; - TIA S&amp;#212;NIAS - 150g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 13,13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 26,26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115753262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SNACK NUTS TEMPERADO - TIA S&amp;#212;NIA - 25g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 6,07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 18,21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115753224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ULTRABAR SABOR BANANA, DAMASCO E CASTANHA DE CAJU - TIA S&amp;#212;NIA - 18g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 16,56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115754429</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COOKIES GRANOLA - TIA S&amp;#212;NIAS - 150g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115753248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ULTRABAR SABOR BANANA, ABACAXI E CASTANHA-DO-PAR&amp;#193; - TIA S&amp;#212;NIA - 18g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R$ 12,42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>644</x:t>
-  </x:si>
-  <x:si>
-    <x:t>717</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115755013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SNACK DE FRUTAS - TIA S&amp;#212;NIA - 25g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>648</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115755006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SNACK NUTS CARAMELIZADO - TIA S&amp;#212;NIA - 25g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115752357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COQUINHO CROCANTE - TIA S&amp;#212;NIA - 120g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>641</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115753187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ULTRABAR SABOR CASTANHA - TIA S&amp;#212;NIA - 18g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898115750988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CROCANTE DE TAPIOCA - TIA S&amp;#212;NIA - 25g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>642</x:t>
+    <x:t>7894900180503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua T&amp;#244;nica Schweppes Citrus 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900060010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Sprite Sem A&amp;#231;ucares 350 ml 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900701753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Coca Cola Zero 1,5 Litros</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900011753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Coca Cola Original 1,5 Litros</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7892840812447</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFRIGERANTE H2O LIMAO - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7896371000175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA LAGER PREMIUM GOLD THEREZ&amp;#211;POLIS - 355ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8412598001659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerveja Estrella Galicia Long Neck 250ml 0% &amp;#225;lcool</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7891098040893</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ice Tea Sabor P&amp;#234;ssego 450ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900520507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua Saborizada Crystal sabor Lim&amp;#227;o 510ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898953990072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA ESTRELLA GALICIA LATA 350 - PACK 12 UNIDADES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898367984124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA EISENBAHN PALE ALE - PACK 06 Lts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900360011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;#193;gua T&amp;#244;nica Schweppes sem A&amp;#231;&amp;#250;car 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898367984056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERVEJA EISENBAHN AMERICAN IPA - LATA 350ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900094008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFRIGERANTE FANTA GUARAN&amp;#193; ZERO - 350ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900701159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Coca Cola Zero 310 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900508017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA I9 POWERADE - FRUTAS TROPICAIS - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900681017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Refrigerante Sprite 350 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7894900501001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEBIDA ISOT&amp;#212;NICA I9 POWERADE - UVA - 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7891098040688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ch&amp;#225; Matte Le&amp;#227;o Original 450ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1530</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7892840812423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFRIGERANTE H2O CITRUS ZERO A&amp;#199;&amp;#218;CAR- 500ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7891098041913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CH&amp;#193; VERDE LE&amp;#195;O - SABOR LIM&amp;#195;O - 450ml</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -682,7 +1177,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N19"/>
+  <x:dimension ref="A1:N85"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -761,21 +1256,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14">
       <x:c r="C3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>16</x:v>
@@ -787,10 +1282,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
         <x:v>16</x:v>
@@ -799,21 +1294,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14">
       <x:c r="C4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>16</x:v>
@@ -822,13 +1317,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
         <x:v>16</x:v>
@@ -837,21 +1332,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14">
       <x:c r="C5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>16</x:v>
@@ -860,13 +1355,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>16</x:v>
@@ -875,21 +1370,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14">
       <x:c r="C6" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>16</x:v>
@@ -898,13 +1393,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
         <x:v>16</x:v>
@@ -913,21 +1408,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N6" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14">
       <x:c r="C7" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>16</x:v>
@@ -939,10 +1434,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>16</x:v>
@@ -951,21 +1446,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14">
       <x:c r="C8" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>16</x:v>
@@ -974,13 +1469,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
         <x:v>16</x:v>
@@ -989,21 +1484,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N8" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14">
       <x:c r="C9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>16</x:v>
@@ -1012,13 +1507,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
         <x:v>16</x:v>
@@ -1030,18 +1525,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14">
       <x:c r="C10" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>16</x:v>
@@ -1050,13 +1545,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
         <x:v>16</x:v>
@@ -1065,21 +1560,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14">
       <x:c r="C11" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>16</x:v>
@@ -1088,13 +1583,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
         <x:v>16</x:v>
@@ -1103,21 +1598,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L11" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14">
       <x:c r="C12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>16</x:v>
@@ -1126,13 +1621,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
         <x:v>16</x:v>
@@ -1144,18 +1639,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14">
       <x:c r="C13" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>16</x:v>
@@ -1164,13 +1659,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
         <x:v>16</x:v>
@@ -1179,21 +1674,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14">
       <x:c r="C14" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>16</x:v>
@@ -1202,13 +1697,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
         <x:v>16</x:v>
@@ -1217,21 +1712,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L14" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14">
       <x:c r="C15" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>16</x:v>
@@ -1240,13 +1735,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
         <x:v>16</x:v>
@@ -1255,21 +1750,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M15" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N15" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14">
       <x:c r="C16" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>16</x:v>
@@ -1278,13 +1773,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
         <x:v>16</x:v>
@@ -1296,18 +1791,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14">
       <x:c r="C17" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>16</x:v>
@@ -1316,13 +1811,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
         <x:v>16</x:v>
@@ -1334,18 +1829,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14">
       <x:c r="C18" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>16</x:v>
@@ -1354,13 +1849,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
         <x:v>16</x:v>
@@ -1372,18 +1867,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14">
       <x:c r="C19" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>16</x:v>
@@ -1392,13 +1887,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
         <x:v>16</x:v>
@@ -1407,13 +1902,2521 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L19" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:14">
+      <x:c r="C20" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:14">
+      <x:c r="C21" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14">
+      <x:c r="C22" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:14">
+      <x:c r="C23" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:14">
+      <x:c r="C24" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:14">
+      <x:c r="C25" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:14">
+      <x:c r="C26" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:14">
+      <x:c r="C27" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:14">
+      <x:c r="C28" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:14">
+      <x:c r="C29" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:14">
+      <x:c r="C30" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="N30" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:14">
+      <x:c r="C31" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N31" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:14">
+      <x:c r="C32" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L32" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N32" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:14">
+      <x:c r="C33" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:14">
+      <x:c r="C34" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M34" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:14">
+      <x:c r="C35" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:14">
+      <x:c r="C36" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:14">
+      <x:c r="C37" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:14">
+      <x:c r="C38" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="N38" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:14">
+      <x:c r="C39" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:14">
+      <x:c r="C40" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:14">
+      <x:c r="C41" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N41" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:14">
+      <x:c r="C42" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:14">
+      <x:c r="C43" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="N43" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:14">
+      <x:c r="C44" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:14">
+      <x:c r="C45" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M45" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="N45" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:14">
+      <x:c r="C46" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M46" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="N46" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:14">
+      <x:c r="C47" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M47" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="N47" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:14">
+      <x:c r="C48" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:14">
+      <x:c r="C49" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:14">
+      <x:c r="C50" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M50" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N50" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:14">
+      <x:c r="C51" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:14">
+      <x:c r="C52" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:14">
+      <x:c r="C53" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:14">
+      <x:c r="C54" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M54" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="N54" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:14">
+      <x:c r="C55" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N55" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:14">
+      <x:c r="C56" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:14">
+      <x:c r="C57" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:14">
+      <x:c r="C58" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:14">
+      <x:c r="C59" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:14">
+      <x:c r="C60" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K60" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:14">
+      <x:c r="C61" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K61" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:14">
+      <x:c r="C62" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="N62" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:14">
+      <x:c r="C63" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:14">
+      <x:c r="C64" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J64" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L64" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M64" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="N64" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:14">
+      <x:c r="C65" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:14">
+      <x:c r="C66" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J66" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K66" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L66" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M66" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="N66" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:14">
+      <x:c r="C67" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:14">
+      <x:c r="C68" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:14">
+      <x:c r="C69" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K69" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:14">
+      <x:c r="C70" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K70" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:14">
+      <x:c r="C71" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:14">
+      <x:c r="C72" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K72" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M72" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="N72" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:14">
+      <x:c r="C73" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K73" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:14">
+      <x:c r="C74" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K74" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:14">
+      <x:c r="C75" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K75" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:14">
+      <x:c r="C76" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J76" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K76" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L76" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M76" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N76" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:14">
+      <x:c r="C77" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M77" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N77" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:14">
+      <x:c r="C78" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J78" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K78" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L78" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M78" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="N78" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:14">
+      <x:c r="C79" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:14">
+      <x:c r="C80" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M80" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="N80" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:14">
+      <x:c r="C81" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M81" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="N81" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:14">
+      <x:c r="C82" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I82" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J82" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K82" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L82" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M82" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N82" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:14">
+      <x:c r="C83" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I83" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J83" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K83" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L83" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M83" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="N83" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:14">
+      <x:c r="C84" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K84" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:14">
+      <x:c r="C85" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K85" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M85" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="N85" s="0" t="s">
+        <x:v>148</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/w7pay/assets/FechamentoFinanceiro.xlsx
+++ b/w7pay/assets/FechamentoFinanceiro.xlsx
@@ -34,25 +34,25 @@
     <x:t xml:space="preserve">Total de Vendas: </x:t>
   </x:si>
   <x:si>
-    <x:t>2284</x:t>
+    <x:t>3</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Saldo Vendas: </x:t>
   </x:si>
   <x:si>
-    <x:t>R$ 16.579,05</x:t>
+    <x:t>R$ 1.860,00</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Valor Imagine(26,5%): </x:t>
   </x:si>
   <x:si>
-    <x:t>R$ 4.393,45</x:t>
+    <x:t>R$ 4,93</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Valor a Receber: </x:t>
   </x:si>
   <x:si>
-    <x:t>R$ 12.185,60</x:t>
+    <x:t>R$ 1.855,07</x:t>
   </x:si>
   <x:si>
     <x:t>EAN</x:t>
@@ -91,163 +91,109 @@
     <x:t>Saldo</x:t>
   </x:si>
   <x:si>
-    <x:t>739845213233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SALADA DE FRUTAS M&amp;#201;DIA - FRUTAS e CIA - POTE 240g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 10,35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 12.671,40</x:t>
+    <x:t>7898967763174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power Focus - Cacau - Sach&amp;#234; 10g</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COCO SECO EM LASCAS - FRUTAS e CIA - POTE 150g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 9,20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 1.500,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BANANA IN NATURA - FRUTAS &amp; CIA - UNIDADES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 2,20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 1.164,25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MA&amp;#199;&amp;#195; IN NATURA - FRUTAS e CIA - UNIDADE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 3,11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 690,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>P&amp;#202;RA IN NATURA - FRUTAS e CIA - UNIDADE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 3,35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 442,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SALADA DE FRUTAS GRANDE - FRUTAS e CIA - POTE 360g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 13,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 83,40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SALADA DE FRUTAS PEQUENA - FRUTAS e CIA - POTE 110g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 4,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 28,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABACAXI IN NATURA - FRUTAS e CIA - POTE 110g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR$ 0,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMEIXA IN NATURA - FRUTAS e CIA - UNIDADE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANGA IN NATURA - FRUTAS e CIA - POTE 110g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEL&amp;#195;O IN NATURA - FRUTAS e CIA - POTE 110g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739845213288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAM&amp;#195;O IN NATURA - FRUTAS e CIA - POTE 110g</x:t>
+    <x:t>R$ 6,20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 18,60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R$ 0,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power Focus - Original - Lata 220g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power Focus - Original - Sach&amp;#234; 10g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BITES AMENDOAS COM CANELA - FOOD VIBES - 50 g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BITES AM&amp;#202;NDOAS COM VANILLA 50G - FOOD VIBES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BITES CAF&amp;#201; MOCHA - FOOD VIBES - 50g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BITES COCO COM CACAU - FOOD VIBES - 50g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUTS AMENDOA COM CHOCOLATE BRANCO E IOGURTE GREGO COM VANILLA - FOOD VIBES - 40g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUTS AM&amp;#202;NDOAS COM CHOCOLATE BRANCO E COCO QUEIMADO - FOOD VIBES - 40G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUTS AM&amp;#202;NDOAS COM CHOCOLATE DARK E BERRIES COM LIM&amp;#195;O SICILIANO - FOOD VIBES - 40G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUTS AM&amp;#202;NDOAS COM CHOCOLATE DARK E CACAU COM SAL DO HIMALAIA - FOOD VIBES - 40G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUTS CASTANHA DE CAJU COM CHOCOLATE BRANCO E GOIABA - FOOD VIBES - 40g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUTS CASTANHA DE CAJU COM CHOCOLATE DARK E CARAMEL MOCHA - FOOD VIBES - 40g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7898967763150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power Focus - Cacau - Lata 220g</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -632,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L24"/>
+  <x:dimension ref="A1:L26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -764,71 +710,71 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="H13" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="K13" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="L13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
       <x:c r="A14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J14" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="K14" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="L14" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:12">
       <x:c r="A15" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>27</x:v>
@@ -837,36 +783,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K15" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L15" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
       <x:c r="A16" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>27</x:v>
@@ -875,36 +821,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K16" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L16" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:12">
       <x:c r="A17" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>27</x:v>
@@ -913,36 +859,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K17" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L17" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:12">
       <x:c r="A18" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>27</x:v>
@@ -951,36 +897,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:12">
       <x:c r="A19" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>27</x:v>
@@ -989,36 +935,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L19" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:12">
       <x:c r="A20" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>27</x:v>
@@ -1027,36 +973,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L20" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:12">
       <x:c r="A21" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>27</x:v>
@@ -1065,36 +1011,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:12">
       <x:c r="A22" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>27</x:v>
@@ -1103,36 +1049,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L22" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:12">
       <x:c r="A23" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>27</x:v>
@@ -1141,36 +1087,36 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K23" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L23" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:12">
       <x:c r="A24" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>27</x:v>
@@ -1179,28 +1125,104 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K24" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L24" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:12">
+      <x:c r="A25" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:12">
+      <x:c r="A26" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
